--- a/fichiers_xls/test_cmd_gather_columns_in_one.xlsx
+++ b/fichiers_xls/test_cmd_gather_columns_in_one.xlsx
@@ -495,7 +495,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="21.66" customWidth="1" style="3" min="1" max="1"/>
   </cols>
